--- a/scripts/GP/1^5^50N_gp_1.xlsx
+++ b/scripts/GP/1^5^50N_gp_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16820" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="newton" sheetId="1" r:id="rId1"/>
@@ -1757,11 +1757,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2091697712"/>
-        <c:axId val="-2091696256"/>
+        <c:axId val="-2130131696"/>
+        <c:axId val="-2086961456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2091697712"/>
+        <c:axId val="-2130131696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1803,7 +1803,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2091696256"/>
+        <c:crossAx val="-2086961456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1811,7 +1811,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2091696256"/>
+        <c:axId val="-2086961456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1862,7 +1862,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2091697712"/>
+        <c:crossAx val="-2130131696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3595,11 +3595,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2123788256"/>
-        <c:axId val="-2094440000"/>
+        <c:axId val="-2121300496"/>
+        <c:axId val="-2122202544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2123788256"/>
+        <c:axId val="-2121300496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3641,7 +3641,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2094440000"/>
+        <c:crossAx val="-2122202544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3649,7 +3649,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2094440000"/>
+        <c:axId val="-2122202544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3700,7 +3700,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2123788256"/>
+        <c:crossAx val="-2121300496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5464,11 +5464,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2092555376"/>
-        <c:axId val="-2110410208"/>
+        <c:axId val="-2122252592"/>
+        <c:axId val="-2122288896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2092555376"/>
+        <c:axId val="-2122252592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5510,7 +5510,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110410208"/>
+        <c:crossAx val="-2122288896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5518,7 +5518,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2110410208"/>
+        <c:axId val="-2122288896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5569,7 +5569,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2092555376"/>
+        <c:crossAx val="-2122252592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7291,14 +7291,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>749300</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7656,8 +7656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J606"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P360" sqref="P360"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90:XFD90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25051,8 +25051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J543"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView topLeftCell="A537" workbookViewId="0">
+      <selection activeCell="A544" sqref="A544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42443,8 +42443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J543"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
